--- a/Crawler/microsoft/azure_topic.xlsx
+++ b/Crawler/microsoft/azure_topic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #0</t>
   </si>
@@ -46,433 +46,427 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
-    <t>0                        cluster</t>
-  </si>
-  <si>
-    <t>1                      customers</t>
-  </si>
-  <si>
-    <t>2                        service</t>
-  </si>
-  <si>
-    <t>3                          files</t>
-  </si>
-  <si>
-    <t>4                          scale</t>
-  </si>
-  <si>
-    <t>5                           file</t>
-  </si>
-  <si>
-    <t>6                        regions</t>
-  </si>
-  <si>
-    <t>7                            new</t>
-  </si>
-  <si>
-    <t>8                        preview</t>
-  </si>
-  <si>
-    <t>9                      available</t>
-  </si>
-  <si>
-    <t>10                          blob</t>
-  </si>
-  <si>
-    <t>11                  availability</t>
+    <t>0                      microsoft</t>
+  </si>
+  <si>
+    <t>1                            app</t>
+  </si>
+  <si>
+    <t>2                         hybrid</t>
+  </si>
+  <si>
+    <t>3                       premises</t>
+  </si>
+  <si>
+    <t>4                       platform</t>
+  </si>
+  <si>
+    <t>5                      migration</t>
+  </si>
+  <si>
+    <t>6                           data</t>
+  </si>
+  <si>
+    <t>7                           apps</t>
+  </si>
+  <si>
+    <t>8                        windows</t>
+  </si>
+  <si>
+    <t>9                    application</t>
+  </si>
+  <si>
+    <t>10                        server</t>
+  </si>
+  <si>
+    <t>11                      services</t>
+  </si>
+  <si>
+    <t>12                       service</t>
+  </si>
+  <si>
+    <t>13                  applications</t>
+  </si>
+  <si>
+    <t>14                         cloud</t>
+  </si>
+  <si>
+    <t>0                            new</t>
+  </si>
+  <si>
+    <t>1                            set</t>
+  </si>
+  <si>
+    <t>2                     automation</t>
+  </si>
+  <si>
+    <t>3                       security</t>
+  </si>
+  <si>
+    <t>4                        network</t>
+  </si>
+  <si>
+    <t>5                            use</t>
+  </si>
+  <si>
+    <t>6                       machines</t>
+  </si>
+  <si>
+    <t>7                          using</t>
+  </si>
+  <si>
+    <t>8                         create</t>
+  </si>
+  <si>
+    <t>9                       resource</t>
+  </si>
+  <si>
+    <t>10                    powershell</t>
+  </si>
+  <si>
+    <t>11                        server</t>
+  </si>
+  <si>
+    <t>12                       machine</t>
+  </si>
+  <si>
+    <t>13                            vm</t>
+  </si>
+  <si>
+    <t>14                       virtual</t>
+  </si>
+  <si>
+    <t>0                       language</t>
+  </si>
+  <si>
+    <t>1                          build</t>
+  </si>
+  <si>
+    <t>2                           time</t>
+  </si>
+  <si>
+    <t>3                            use</t>
+  </si>
+  <si>
+    <t>4                          using</t>
+  </si>
+  <si>
+    <t>5                            new</t>
+  </si>
+  <si>
+    <t>6                      microsoft</t>
+  </si>
+  <si>
+    <t>7                       services</t>
+  </si>
+  <si>
+    <t>8                          video</t>
+  </si>
+  <si>
+    <t>9                         models</t>
+  </si>
+  <si>
+    <t>10                         model</t>
+  </si>
+  <si>
+    <t>11                          data</t>
+  </si>
+  <si>
+    <t>12                            ai</t>
+  </si>
+  <si>
+    <t>13                       machine</t>
+  </si>
+  <si>
+    <t>14                      learning</t>
+  </si>
+  <si>
+    <t>0                    performance</t>
+  </si>
+  <si>
+    <t>1                            api</t>
+  </si>
+  <si>
+    <t>2                          usage</t>
+  </si>
+  <si>
+    <t>3                        preview</t>
+  </si>
+  <si>
+    <t>4                         portal</t>
+  </si>
+  <si>
+    <t>5                      resources</t>
+  </si>
+  <si>
+    <t>6                       resource</t>
+  </si>
+  <si>
+    <t>7                          costs</t>
+  </si>
+  <si>
+    <t>8                      databases</t>
+  </si>
+  <si>
+    <t>9                            new</t>
+  </si>
+  <si>
+    <t>11                    management</t>
+  </si>
+  <si>
+    <t>12                          cost</t>
+  </si>
+  <si>
+    <t>13                           sql</t>
+  </si>
+  <si>
+    <t>14                      database</t>
+  </si>
+  <si>
+    <t>0                            use</t>
+  </si>
+  <si>
+    <t>1                        version</t>
+  </si>
+  <si>
+    <t>2                            api</t>
+  </si>
+  <si>
+    <t>3                          table</t>
+  </si>
+  <si>
+    <t>4                        service</t>
+  </si>
+  <si>
+    <t>6                          using</t>
+  </si>
+  <si>
+    <t>7                        account</t>
+  </si>
+  <si>
+    <t>8                         search</t>
+  </si>
+  <si>
+    <t>9                          event</t>
+  </si>
+  <si>
+    <t>10                         files</t>
+  </si>
+  <si>
+    <t>12                          file</t>
+  </si>
+  <si>
+    <t>13                          blob</t>
+  </si>
+  <si>
+    <t>14                       storage</t>
+  </si>
+  <si>
+    <t>0                           data</t>
+  </si>
+  <si>
+    <t>1                       business</t>
+  </si>
+  <si>
+    <t>2                       partners</t>
+  </si>
+  <si>
+    <t>3                       solution</t>
+  </si>
+  <si>
+    <t>4                        devices</t>
+  </si>
+  <si>
+    <t>5                      solutions</t>
+  </si>
+  <si>
+    <t>6                       services</t>
+  </si>
+  <si>
+    <t>7                         device</t>
+  </si>
+  <si>
+    <t>8                            new</t>
+  </si>
+  <si>
+    <t>9                           edge</t>
+  </si>
+  <si>
+    <t>10                     customers</t>
+  </si>
+  <si>
+    <t>11                     microsoft</t>
+  </si>
+  <si>
+    <t>12                      security</t>
+  </si>
+  <si>
+    <t>13                         cloud</t>
+  </si>
+  <si>
+    <t>14                           iot</t>
+  </si>
+  <si>
+    <t>0                           high</t>
+  </si>
+  <si>
+    <t>1                        support</t>
+  </si>
+  <si>
+    <t>2                            vms</t>
+  </si>
+  <si>
+    <t>3                        storage</t>
+  </si>
+  <si>
+    <t>4                        regions</t>
+  </si>
+  <si>
+    <t>5                      available</t>
+  </si>
+  <si>
+    <t>6                      workloads</t>
+  </si>
+  <si>
+    <t>7                        service</t>
+  </si>
+  <si>
+    <t>9                          scale</t>
+  </si>
+  <si>
+    <t>10                  availability</t>
+  </si>
+  <si>
+    <t>11                     customers</t>
   </si>
   <si>
     <t>12                   performance</t>
   </si>
   <si>
-    <t>13                          data</t>
-  </si>
-  <si>
-    <t>14                       storage</t>
-  </si>
-  <si>
-    <t>0                    development</t>
-  </si>
-  <si>
-    <t>1                            new</t>
-  </si>
-  <si>
-    <t>2                          stack</t>
-  </si>
-  <si>
-    <t>3                            web</t>
-  </si>
-  <si>
-    <t>4                         visual</t>
-  </si>
-  <si>
-    <t>5                         studio</t>
-  </si>
-  <si>
-    <t>6                           code</t>
-  </si>
-  <si>
-    <t>7                   applications</t>
-  </si>
-  <si>
-    <t>8                       services</t>
-  </si>
-  <si>
-    <t>9                          build</t>
-  </si>
-  <si>
-    <t>10                    developers</t>
-  </si>
-  <si>
-    <t>11                          apps</t>
-  </si>
-  <si>
-    <t>12                   application</t>
-  </si>
-  <si>
-    <t>13                       service</t>
-  </si>
-  <si>
-    <t>14                           app</t>
-  </si>
-  <si>
-    <t>0                            new</t>
-  </si>
-  <si>
-    <t>1                            use</t>
-  </si>
-  <si>
-    <t>2                         create</t>
-  </si>
-  <si>
-    <t>3                          linux</t>
-  </si>
-  <si>
-    <t>4                          using</t>
-  </si>
-  <si>
-    <t>5                           site</t>
-  </si>
-  <si>
-    <t>6                         server</t>
-  </si>
-  <si>
-    <t>7                        network</t>
-  </si>
-  <si>
-    <t>8                        windows</t>
-  </si>
-  <si>
-    <t>9                       recovery</t>
-  </si>
-  <si>
-    <t>10                       machine</t>
-  </si>
-  <si>
-    <t>11                           vms</t>
-  </si>
-  <si>
-    <t>12                      machines</t>
-  </si>
-  <si>
-    <t>13                            vm</t>
-  </si>
-  <si>
-    <t>14                       virtual</t>
-  </si>
-  <si>
-    <t>0                      solutions</t>
-  </si>
-  <si>
-    <t>2                           time</t>
-  </si>
-  <si>
-    <t>3                          using</t>
-  </si>
-  <si>
-    <t>4                       services</t>
-  </si>
-  <si>
-    <t>5                        digital</t>
-  </si>
-  <si>
-    <t>6                            new</t>
-  </si>
-  <si>
-    <t>7                         models</t>
-  </si>
-  <si>
-    <t>8                      microsoft</t>
-  </si>
-  <si>
-    <t>9                          model</t>
-  </si>
-  <si>
-    <t>10                         video</t>
-  </si>
-  <si>
-    <t>11                       machine</t>
-  </si>
-  <si>
-    <t>12                          edge</t>
-  </si>
-  <si>
-    <t>13                      learning</t>
-  </si>
-  <si>
-    <t>14                            ai</t>
-  </si>
-  <si>
-    <t>0                           help</t>
-  </si>
-  <si>
-    <t>1                 infrastructure</t>
-  </si>
-  <si>
-    <t>2                      solutions</t>
-  </si>
-  <si>
-    <t>3                     enterprise</t>
-  </si>
-  <si>
-    <t>4                        service</t>
-  </si>
-  <si>
-    <t>5                       platform</t>
-  </si>
-  <si>
-    <t>6                     management</t>
-  </si>
-  <si>
-    <t>7                       business</t>
-  </si>
-  <si>
-    <t>8                   applications</t>
-  </si>
-  <si>
-    <t>9                            new</t>
-  </si>
-  <si>
-    <t>10                      services</t>
-  </si>
-  <si>
-    <t>11                      security</t>
-  </si>
-  <si>
-    <t>12                     customers</t>
-  </si>
-  <si>
-    <t>13                     microsoft</t>
-  </si>
-  <si>
-    <t>14                         cloud</t>
-  </si>
-  <si>
-    <t>0                          using</t>
-  </si>
-  <si>
-    <t>1                      connected</t>
-  </si>
-  <si>
-    <t>2                       security</t>
-  </si>
-  <si>
-    <t>3                           time</t>
-  </si>
-  <si>
-    <t>5                        central</t>
-  </si>
-  <si>
-    <t>6                      solutions</t>
-  </si>
-  <si>
-    <t>8                         events</t>
-  </si>
-  <si>
-    <t>9                       solution</t>
-  </si>
-  <si>
-    <t>10                         event</t>
-  </si>
-  <si>
-    <t>11                           hub</t>
-  </si>
-  <si>
-    <t>12                       devices</t>
-  </si>
-  <si>
-    <t>13                        device</t>
-  </si>
-  <si>
-    <t>14                           iot</t>
-  </si>
-  <si>
-    <t>1                          query</t>
-  </si>
-  <si>
-    <t>2                        managed</t>
-  </si>
-  <si>
-    <t>3                       instance</t>
-  </si>
-  <si>
-    <t>5                    application</t>
-  </si>
-  <si>
-    <t>6                           data</t>
-  </si>
-  <si>
-    <t>7                        traffic</t>
-  </si>
-  <si>
-    <t>8                      migration</t>
+    <t>13                       network</t>
+  </si>
+  <si>
+    <t>0                            log</t>
+  </si>
+  <si>
+    <t>1                     monitoring</t>
+  </si>
+  <si>
+    <t>2                          store</t>
+  </si>
+  <si>
+    <t>4                       analysis</t>
+  </si>
+  <si>
+    <t>5                        queries</t>
+  </si>
+  <si>
+    <t>7                        monitor</t>
+  </si>
+  <si>
+    <t>8                    performance</t>
+  </si>
+  <si>
+    <t>9                       insights</t>
+  </si>
+  <si>
+    <t>10                         query</t>
+  </si>
+  <si>
+    <t>11                           sql</t>
+  </si>
+  <si>
+    <t>12                          time</t>
+  </si>
+  <si>
+    <t>13                     analytics</t>
+  </si>
+  <si>
+    <t>14                          data</t>
+  </si>
+  <si>
+    <t>0                         studio</t>
+  </si>
+  <si>
+    <t>2                         visual</t>
+  </si>
+  <si>
+    <t>3                            net</t>
+  </si>
+  <si>
+    <t>4                            sdk</t>
+  </si>
+  <si>
+    <t>5                       services</t>
+  </si>
+  <si>
+    <t>6                         create</t>
+  </si>
+  <si>
+    <t>7                           code</t>
+  </si>
+  <si>
+    <t>8                          using</t>
   </si>
   <si>
     <t>9                        service</t>
   </si>
   <si>
-    <t>10                     databases</t>
-  </si>
-  <si>
-    <t>11                   performance</t>
-  </si>
-  <si>
-    <t>12                        server</t>
-  </si>
-  <si>
-    <t>13                      database</t>
-  </si>
-  <si>
-    <t>14                           sql</t>
-  </si>
-  <si>
-    <t>0                        queries</t>
-  </si>
-  <si>
-    <t>1                     processing</t>
-  </si>
-  <si>
-    <t>2                          power</t>
-  </si>
-  <si>
-    <t>3                           real</t>
-  </si>
-  <si>
-    <t>4                          store</t>
-  </si>
-  <si>
-    <t>5                            sql</t>
-  </si>
-  <si>
-    <t>6                            big</t>
-  </si>
-  <si>
-    <t>7                            use</t>
-  </si>
-  <si>
-    <t>8                       analysis</t>
-  </si>
-  <si>
-    <t>9                          using</t>
-  </si>
-  <si>
-    <t>10                      insights</t>
-  </si>
-  <si>
-    <t>11                         query</t>
-  </si>
-  <si>
-    <t>12                          time</t>
-  </si>
-  <si>
-    <t>13                     analytics</t>
-  </si>
-  <si>
-    <t>14                          data</t>
-  </si>
-  <si>
-    <t>0                           need</t>
-  </si>
-  <si>
-    <t>1                          click</t>
-  </si>
-  <si>
-    <t>2                    application</t>
-  </si>
-  <si>
-    <t>3                     automation</t>
-  </si>
-  <si>
-    <t>4                         create</t>
-  </si>
-  <si>
-    <t>5                           view</t>
-  </si>
-  <si>
-    <t>6                          using</t>
-  </si>
-  <si>
-    <t>7                     powershell</t>
-  </si>
-  <si>
-    <t>8                            use</t>
-  </si>
-  <si>
-    <t>9                      resources</t>
-  </si>
-  <si>
-    <t>10                          cost</t>
-  </si>
-  <si>
-    <t>11                        portal</t>
-  </si>
-  <si>
-    <t>12                    management</t>
-  </si>
-  <si>
-    <t>13                      resource</t>
+    <t>10                           use</t>
+  </si>
+  <si>
+    <t>11                   application</t>
+  </si>
+  <si>
+    <t>12                           web</t>
+  </si>
+  <si>
+    <t>13                           app</t>
   </si>
   <si>
     <t>14                           new</t>
   </si>
   <si>
-    <t>0                        support</t>
-  </si>
-  <si>
-    <t>1                            net</t>
-  </si>
-  <si>
-    <t>2                       services</t>
-  </si>
-  <si>
-    <t>4                      container</t>
-  </si>
-  <si>
-    <t>5                            key</t>
-  </si>
-  <si>
-    <t>6                         create</t>
-  </si>
-  <si>
-    <t>7                            sdk</t>
-  </si>
-  <si>
-    <t>8                        version</t>
-  </si>
-  <si>
-    <t>9                           code</t>
-  </si>
-  <si>
-    <t>10                           use</t>
-  </si>
-  <si>
-    <t>11                         using</t>
-  </si>
-  <si>
-    <t>12                           new</t>
-  </si>
-  <si>
-    <t>13                           api</t>
+    <t>0                     deployment</t>
+  </si>
+  <si>
+    <t>1                           team</t>
+  </si>
+  <si>
+    <t>2                          build</t>
+  </si>
+  <si>
+    <t>3                         deploy</t>
+  </si>
+  <si>
+    <t>4                          cloud</t>
+  </si>
+  <si>
+    <t>5                     developers</t>
+  </si>
+  <si>
+    <t>6                   applications</t>
+  </si>
+  <si>
+    <t>7                        support</t>
+  </si>
+  <si>
+    <t>8                        cluster</t>
+  </si>
+  <si>
+    <t>9                      microsoft</t>
+  </si>
+  <si>
+    <t>10                         linux</t>
+  </si>
+  <si>
+    <t>11                        source</t>
+  </si>
+  <si>
+    <t>12                     container</t>
+  </si>
+  <si>
+    <t>13                          open</t>
   </si>
   <si>
     <t>14                       service</t>
@@ -888,19 +882,19 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
         <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -914,25 +908,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
         <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -946,25 +940,25 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -978,25 +972,25 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1010,25 +1004,25 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1042,25 +1036,25 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1074,25 +1068,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1106,25 +1100,25 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1138,25 +1132,25 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1170,25 +1164,25 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1202,25 +1196,25 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1237,22 +1231,22 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1269,22 +1263,22 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1301,22 +1295,22 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1333,22 +1327,22 @@
         <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
